--- a/artfynd/A 56157-2022.xlsx
+++ b/artfynd/A 56157-2022.xlsx
@@ -828,10 +828,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>798208.3940890837</v>
+        <v>798208</v>
       </c>
       <c r="R3" t="n">
-        <v>7232633.685534997</v>
+        <v>7232634</v>
       </c>
       <c r="S3" t="n">
         <v>50</v>
@@ -861,19 +861,9 @@
           <t>2023-08-02</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA3" t="inlineStr">
         <is>
           <t>2023-08-02</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
